--- a/metadata_templates/HP_AV_simple_metadata_template.xlsx
+++ b/metadata_templates/HP_AV_simple_metadata_template.xlsx
@@ -1,139 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/ULS_Work/DigitalCollections/Heinz/HHC_AV-Kennywood/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_050975316A904621A675828D4E7F8A7CC8832DB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEE0CDE-292E-7C41-853E-51C809A3D43F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D44FE7D-9D32-DB4B-BE33-8A17946B9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Object" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>creator</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>normalized_date</t>
+  </si>
+  <si>
+    <t>normalized_date_qualifier</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>copyright_status</t>
+  </si>
+  <si>
+    <t>rights_holder</t>
+  </si>
+  <si>
+    <t>publication_status</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>pub_place</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>normalized_date</t>
-  </si>
-  <si>
-    <t>normalized_date_qualifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>copyright_status</t>
-  </si>
-  <si>
-    <t>publication_status</t>
-  </si>
-  <si>
-    <t>rights_holder</t>
-  </si>
-  <si>
-    <t>type_of_resource</t>
-  </si>
-  <si>
-    <t>genre</t>
+    <t>subject_location</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
   <si>
     <t>format</t>
   </si>
   <si>
+    <t>depositor</t>
+  </si>
+  <si>
+    <t>source_collection</t>
+  </si>
+  <si>
+    <t>source_collection_id</t>
+  </si>
+  <si>
+    <t>source_identifier</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
     <t>filename</t>
   </si>
   <si>
-    <t xml:space="preserve">source_collection_id </t>
-  </si>
-  <si>
-    <t>source_collection</t>
-  </si>
-  <si>
-    <t>address</t>
+    <t>source_citation</t>
   </si>
   <si>
     <t>batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_location </t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>depositor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,32 +157,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3A3A3A"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,7 +309,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -218,7 +321,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -265,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,88 +589,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AEB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15" style="2"/>
-    <col min="5" max="5" width="15" style="4"/>
-    <col min="6" max="6" width="15" style="2"/>
-    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="15" style="2"/>
+    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="808" width="9" style="1"/>
+    <col min="809" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="9"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="9"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="9"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="9"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="9"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="9"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="9"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="9"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="9"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="9"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="9"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="9"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="9"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="9"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="9"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="9"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="9"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="9"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="9"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="9"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="9"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="9"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="9"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="9"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="9"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="9"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="9"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="9"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="9"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="9"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="9"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="9"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="9"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="9"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="9"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="9"/>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="9"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="9"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="9"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="9"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="9"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="9"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="9"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="9"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="9"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="9"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="9"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="9"/>
+      <c r="V49" s="4"/>
+    </row>
+    <row r="50" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="9"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="9"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="9"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="9"/>
+      <c r="V53" s="4"/>
+    </row>
+    <row r="54" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="9"/>
+      <c r="V54" s="4"/>
+    </row>
+    <row r="55" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="9"/>
+      <c r="V55" s="4"/>
+    </row>
+    <row r="56" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="9"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="9"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="9"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="9"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="9"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="9"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="9"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="9"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="9"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="9"/>
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="9"/>
+      <c r="V66" s="4"/>
+    </row>
+    <row r="67" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="9"/>
+      <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="9"/>
+      <c r="V68" s="4"/>
+    </row>
+    <row r="69" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="9"/>
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="9"/>
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="9"/>
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="9"/>
+      <c r="V72" s="4"/>
+    </row>
+    <row r="73" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="9"/>
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="9"/>
+      <c r="V74" s="4"/>
+    </row>
+    <row r="75" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="9"/>
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="9"/>
+      <c r="V76" s="4"/>
+    </row>
+    <row r="77" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="9"/>
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="9"/>
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="9"/>
+      <c r="V79" s="4"/>
+    </row>
+    <row r="80" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="9"/>
+      <c r="V80" s="4"/>
+    </row>
+    <row r="81" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="9"/>
+      <c r="V81" s="4"/>
+    </row>
+    <row r="82" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="9"/>
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="9"/>
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="9"/>
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="9"/>
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="9"/>
+      <c r="V86" s="4"/>
+    </row>
+    <row r="87" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="9"/>
+      <c r="V87" s="4"/>
+    </row>
+    <row r="88" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="9"/>
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="9"/>
+      <c r="V89" s="4"/>
+    </row>
+    <row r="90" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="9"/>
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="9"/>
+      <c r="V91" s="4"/>
+    </row>
+    <row r="92" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="9"/>
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="9"/>
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="9"/>
+      <c r="V94" s="4"/>
+    </row>
+    <row r="95" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="9"/>
+      <c r="V95" s="4"/>
+    </row>
+    <row r="96" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="9"/>
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="9"/>
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="9"/>
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="9"/>
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="9"/>
+      <c r="V100" s="4"/>
+    </row>
+    <row r="101" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="9"/>
+      <c r="V101" s="4"/>
+    </row>
+    <row r="102" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="9"/>
+      <c r="V102" s="4"/>
+    </row>
+    <row r="103" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="9"/>
+      <c r="V103" s="4"/>
+    </row>
+    <row r="104" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="9"/>
+      <c r="V104" s="4"/>
+    </row>
+    <row r="105" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="V105" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/metadata_templates/HP_AV_simple_metadata_template.xlsx
+++ b/metadata_templates/HP_AV_simple_metadata_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D44FE7D-9D32-DB4B-BE33-8A17946B9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512656BB-C38C-C443-A7C8-D98495ECB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -106,13 +103,16 @@
   </si>
   <si>
     <t>batch</t>
+  </si>
+  <si>
+    <t>type_of_resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,6 +137,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -177,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -206,6 +212,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AEB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,85 +635,85 @@
   <sheetData>
     <row r="1" spans="1:27" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">

--- a/metadata_templates/HP_AV_simple_metadata_template.xlsx
+++ b/metadata_templates/HP_AV_simple_metadata_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512656BB-C38C-C443-A7C8-D98495ECB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{512656BB-C38C-C443-A7C8-D98495ECB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E878F3-57FC-425F-91C2-1D8C30186CEE}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5720" windowWidth="24980" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -66,12 +66,6 @@
     <t>pub_place</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>subject_location</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>type_of_resource</t>
+  </si>
+  <si>
+    <t>subject_geographic</t>
+  </si>
+  <si>
+    <t>subject_topic</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,42 +598,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AEB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="808" width="9" style="1"/>
     <col min="809" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -674,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>7</v>
@@ -686,37 +686,37 @@
         <v>12</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -724,7 +724,7 @@
       <c r="R2" s="9"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -732,7 +732,7 @@
       <c r="R3" s="9"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -740,7 +740,7 @@
       <c r="R4" s="9"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -748,7 +748,7 @@
       <c r="R5" s="9"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -756,7 +756,7 @@
       <c r="R6" s="9"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -764,7 +764,7 @@
       <c r="R7" s="9"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -772,7 +772,7 @@
       <c r="R8" s="9"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -780,7 +780,7 @@
       <c r="R9" s="9"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -788,7 +788,7 @@
       <c r="R10" s="9"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -796,7 +796,7 @@
       <c r="R11" s="9"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -804,7 +804,7 @@
       <c r="R12" s="9"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -812,7 +812,7 @@
       <c r="R13" s="9"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -820,7 +820,7 @@
       <c r="R14" s="9"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -828,7 +828,7 @@
       <c r="R15" s="9"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -836,7 +836,7 @@
       <c r="R16" s="9"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -844,7 +844,7 @@
       <c r="R17" s="9"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -852,7 +852,7 @@
       <c r="R18" s="9"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -860,7 +860,7 @@
       <c r="R19" s="9"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -868,7 +868,7 @@
       <c r="R20" s="9"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -876,7 +876,7 @@
       <c r="R21" s="9"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -884,7 +884,7 @@
       <c r="R22" s="9"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -892,7 +892,7 @@
       <c r="R23" s="9"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -900,7 +900,7 @@
       <c r="R24" s="9"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -908,7 +908,7 @@
       <c r="R25" s="9"/>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -916,7 +916,7 @@
       <c r="R26" s="9"/>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -924,7 +924,7 @@
       <c r="R27" s="9"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -932,7 +932,7 @@
       <c r="R28" s="9"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -940,7 +940,7 @@
       <c r="R29" s="9"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -948,7 +948,7 @@
       <c r="R30" s="9"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -956,7 +956,7 @@
       <c r="R31" s="9"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -964,7 +964,7 @@
       <c r="R32" s="9"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -972,7 +972,7 @@
       <c r="R33" s="9"/>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -980,7 +980,7 @@
       <c r="R34" s="9"/>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -988,7 +988,7 @@
       <c r="R35" s="9"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -996,7 +996,7 @@
       <c r="R36" s="9"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -1004,7 +1004,7 @@
       <c r="R37" s="9"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -1012,7 +1012,7 @@
       <c r="R38" s="9"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -1020,7 +1020,7 @@
       <c r="R39" s="9"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -1028,7 +1028,7 @@
       <c r="R40" s="9"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -1036,7 +1036,7 @@
       <c r="R41" s="9"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -1044,7 +1044,7 @@
       <c r="R42" s="9"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -1052,7 +1052,7 @@
       <c r="R43" s="9"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -1060,7 +1060,7 @@
       <c r="R44" s="9"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -1068,7 +1068,7 @@
       <c r="R45" s="9"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -1076,7 +1076,7 @@
       <c r="R46" s="9"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -1084,7 +1084,7 @@
       <c r="R47" s="9"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -1092,7 +1092,7 @@
       <c r="R48" s="9"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -1100,7 +1100,7 @@
       <c r="R49" s="9"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -1108,7 +1108,7 @@
       <c r="R50" s="9"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -1116,7 +1116,7 @@
       <c r="R51" s="9"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -1124,7 +1124,7 @@
       <c r="R52" s="9"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -1132,7 +1132,7 @@
       <c r="R53" s="9"/>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -1140,7 +1140,7 @@
       <c r="R54" s="9"/>
       <c r="V54" s="4"/>
     </row>
-    <row r="55" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -1148,7 +1148,7 @@
       <c r="R55" s="9"/>
       <c r="V55" s="4"/>
     </row>
-    <row r="56" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -1156,7 +1156,7 @@
       <c r="R56" s="9"/>
       <c r="V56" s="4"/>
     </row>
-    <row r="57" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -1164,7 +1164,7 @@
       <c r="R57" s="9"/>
       <c r="V57" s="4"/>
     </row>
-    <row r="58" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -1172,7 +1172,7 @@
       <c r="R58" s="9"/>
       <c r="V58" s="4"/>
     </row>
-    <row r="59" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -1180,7 +1180,7 @@
       <c r="R59" s="9"/>
       <c r="V59" s="4"/>
     </row>
-    <row r="60" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -1188,7 +1188,7 @@
       <c r="R60" s="9"/>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -1196,7 +1196,7 @@
       <c r="R61" s="9"/>
       <c r="V61" s="4"/>
     </row>
-    <row r="62" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -1204,7 +1204,7 @@
       <c r="R62" s="9"/>
       <c r="V62" s="4"/>
     </row>
-    <row r="63" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="R63" s="9"/>
       <c r="V63" s="4"/>
     </row>
-    <row r="64" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -1220,7 +1220,7 @@
       <c r="R64" s="9"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -1228,7 +1228,7 @@
       <c r="R65" s="9"/>
       <c r="V65" s="4"/>
     </row>
-    <row r="66" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -1236,7 +1236,7 @@
       <c r="R66" s="9"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -1244,7 +1244,7 @@
       <c r="R67" s="9"/>
       <c r="V67" s="4"/>
     </row>
-    <row r="68" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -1252,7 +1252,7 @@
       <c r="R68" s="9"/>
       <c r="V68" s="4"/>
     </row>
-    <row r="69" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -1260,7 +1260,7 @@
       <c r="R69" s="9"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -1268,7 +1268,7 @@
       <c r="R70" s="9"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -1276,7 +1276,7 @@
       <c r="R71" s="9"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -1284,7 +1284,7 @@
       <c r="R72" s="9"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -1292,7 +1292,7 @@
       <c r="R73" s="9"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -1300,7 +1300,7 @@
       <c r="R74" s="9"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -1308,7 +1308,7 @@
       <c r="R75" s="9"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -1316,7 +1316,7 @@
       <c r="R76" s="9"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -1324,7 +1324,7 @@
       <c r="R77" s="9"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -1332,7 +1332,7 @@
       <c r="R78" s="9"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -1340,7 +1340,7 @@
       <c r="R79" s="9"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -1348,7 +1348,7 @@
       <c r="R80" s="9"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -1356,7 +1356,7 @@
       <c r="R81" s="9"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -1364,7 +1364,7 @@
       <c r="R82" s="9"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -1372,7 +1372,7 @@
       <c r="R83" s="9"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -1380,7 +1380,7 @@
       <c r="R84" s="9"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -1388,7 +1388,7 @@
       <c r="R85" s="9"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -1396,7 +1396,7 @@
       <c r="R86" s="9"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -1404,7 +1404,7 @@
       <c r="R87" s="9"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -1412,7 +1412,7 @@
       <c r="R88" s="9"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -1420,7 +1420,7 @@
       <c r="R89" s="9"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -1428,7 +1428,7 @@
       <c r="R90" s="9"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -1436,7 +1436,7 @@
       <c r="R91" s="9"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -1444,7 +1444,7 @@
       <c r="R92" s="9"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -1452,7 +1452,7 @@
       <c r="R93" s="9"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -1460,7 +1460,7 @@
       <c r="R94" s="9"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -1468,7 +1468,7 @@
       <c r="R95" s="9"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -1476,7 +1476,7 @@
       <c r="R96" s="9"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -1484,7 +1484,7 @@
       <c r="R97" s="9"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -1492,7 +1492,7 @@
       <c r="R98" s="9"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -1500,7 +1500,7 @@
       <c r="R99" s="9"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -1508,7 +1508,7 @@
       <c r="R100" s="9"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -1516,7 +1516,7 @@
       <c r="R101" s="9"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -1524,7 +1524,7 @@
       <c r="R102" s="9"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -1532,7 +1532,7 @@
       <c r="R103" s="9"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="14:22" x14ac:dyDescent="0.35">
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -1540,7 +1540,7 @@
       <c r="R104" s="9"/>
       <c r="V104" s="4"/>
     </row>
-    <row r="105" spans="14:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="14:22" x14ac:dyDescent="0.35">
       <c r="V105" s="4"/>
     </row>
   </sheetData>
